--- a/datafile/home_data.xlsx
+++ b/datafile/home_data.xlsx
@@ -529,10 +529,10 @@
         <v>70</v>
       </c>
       <c r="C7" t="n">
-        <v>-3225</v>
+        <v>336</v>
       </c>
       <c r="D7" t="n">
-        <v>3225</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8">
